--- a/src/test/resources/writer/style_if.xlsx
+++ b/src/test/resources/writer/style_if.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>1 EQ 1</t>
   </si>
@@ -74,6 +74,12 @@
     <t>string_value2</t>
   </si>
   <si>
+    <t>boolean_value</t>
+  </si>
+  <si>
+    <t>null_value</t>
+  </si>
+  <si>
     <t>child.number_value1</t>
   </si>
   <si>
@@ -110,6 +116,12 @@
     <t>テスト2</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>number_value EQ 1 (#{number_value1} EQ 1)</t>
   </si>
   <si>
@@ -120,6 +132,15 @@
   </si>
   <si>
     <t>string_value1 EQ string_value2</t>
+  </si>
+  <si>
+    <t>boolean_value EQ TRUE</t>
+  </si>
+  <si>
+    <t>boolean_value EQ FALSE</t>
+  </si>
+  <si>
+    <t>null_value EQ NULL</t>
   </si>
   <si>
     <t>child.number_value1 EQ 1</t>
@@ -283,17 +304,16 @@
     <col min="2" max="2" width="37.64453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="35.18359375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="32.19921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="20.953125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="23.9296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="35.921875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="32.93359375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="29.71484375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="32.6875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.6484375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="50.6640625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="14.30078125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="14.92578125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.8671875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="23.9296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="35.921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="32.93359375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="29.71484375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="32.6875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="53.6484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="50.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="8.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -384,25 +404,31 @@
       <c r="L3" t="s" s="1">
         <v>27</v>
       </c>
+      <c r="M3" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s" s="1">
         <v>30</v>
@@ -411,10 +437,10 @@
         <v>31</v>
       </c>
       <c r="I4" t="s" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s" s="1">
         <v>30</v>
@@ -422,163 +448,178 @@
       <c r="L4" t="s" s="1">
         <v>31</v>
       </c>
+      <c r="M4" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="F5" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s" s="3">
+        <v>43</v>
       </c>
       <c r="I5" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s" s="3">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="J5" t="s" s="4">
+        <v>45</v>
       </c>
       <c r="K5" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s" s="4">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="L5" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s" s="1">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s" s="1">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s" s="1">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s" s="1">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s" s="1">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s" s="1">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="3">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="4">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="3">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/writer/style_if.xlsx
+++ b/src/test/resources/writer/style_if.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>1 EQ 1</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>null_value EQ NULL</t>
+  </si>
+  <si>
+    <t>null_value NE NULL</t>
   </si>
   <si>
     <t>child.number_value1 EQ 1</t>
@@ -306,15 +309,15 @@
     <col min="4" max="4" width="32.19921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.8671875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="20.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="23.9296875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="35.921875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="32.93359375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="29.71484375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="32.6875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="53.6484375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="50.6640625" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.55859375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="20.953125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="23.9296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="35.921875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="32.93359375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="29.71484375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="32.6875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="53.6484375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="50.6640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -477,149 +480,152 @@
       <c r="G5" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="4">
         <v>43</v>
       </c>
       <c r="I5" t="s" s="3">
         <v>44</v>
       </c>
-      <c r="J5" t="s" s="4">
+      <c r="J5" t="s" s="3">
         <v>45</v>
       </c>
       <c r="K5" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="L5" t="s" s="3">
+      <c r="L5" t="s" s="4">
         <v>47</v>
       </c>
       <c r="M5" t="s" s="3">
         <v>48</v>
       </c>
-      <c r="N5" t="s" s="4">
+      <c r="N5" t="s" s="3">
         <v>49</v>
       </c>
       <c r="O5" t="s" s="4">
         <v>50</v>
       </c>
+      <c r="P5" t="s" s="4">
+        <v>51</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s" s="1">
         <v>30</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s" s="1">
         <v>30</v>
       </c>
       <c r="G7" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s" s="1">
         <v>33</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s" s="1">
         <v>30</v>
       </c>
       <c r="G8" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s" s="1">
         <v>30</v>
       </c>
       <c r="G9" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/writer/style_if.xlsx
+++ b/src/test/resources/writer/style_if.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>1 EQ 1</t>
   </si>
@@ -104,21 +104,12 @@
     <t>child.grandChild.string_value2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>テスト</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>テスト2</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -183,12 +174,6 @@
   </si>
   <si>
     <t>data.string_value2</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>1.0</t>
   </si>
   <si>
     <t>テスト3</t>
@@ -321,311 +306,311 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="3">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="3">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="3">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="3">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="4">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s" s="1">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="1">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="1">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="1">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="1">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s" s="1">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s" s="1">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s" s="1">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s" s="1">
+      <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s" s="1">
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s" s="1">
+      <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s" s="1">
+      <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s" s="1">
+      <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="1">
+      <c r="A4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s" s="1">
+      <c r="C4" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s" s="1">
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s" s="1">
+      <c r="G4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s" s="1">
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s" s="1">
+      <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s" s="1">
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="M5" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="N5" t="s" s="3">
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O5" t="s" s="4">
+      <c r="B9" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P5" t="s" s="4">
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s" s="1">
+    <row r="10">
+      <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F7" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s" s="1">
+      <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s" s="1">
+      <c r="C10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C8" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s" s="1">
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F8" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s" s="1">
+      <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H8" t="s" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s" s="1">
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s" s="1">
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s" s="1">
+      <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H9" t="s" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s" s="4">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s" s="4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s" s="4">
-        <v>63</v>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
